--- a/biology/Médecine/Acide_métaborique/Acide_métaborique.xlsx
+++ b/biology/Médecine/Acide_métaborique/Acide_métaborique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9taborique</t>
+          <t>Acide_métaborique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'acide métaborique, ou acide dioxoborinique[3], est un corps minéral, un composé moléculaire à liaison covalente de formule équivalente simplifiée HBO2. Il existe trois formes polymorphiques : α, β et γ.
+L'acide métaborique, ou acide dioxoborinique, est un corps minéral, un composé moléculaire à liaison covalente de formule équivalente simplifiée HBO2. Il existe trois formes polymorphiques : α, β et γ.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9taborique</t>
+          <t>Acide_métaborique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Propriétés physico-chimiques de la forme α, la plus dense</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce solide blanc de masse molaire 43,82 g/mol, parfois légèrement coloré, cristallise dans un réseau cubique[4]. Sa masse volumique vaut 2,486 g/cm3, son point de fusion 236 °C et son indice de réfraction 1,619. Il est légèrement soluble dans l'eau chaude, et encore moins dans l'eau froide.
-La forme α est obtenue par voie sèche : l'acide orthoborique solide sec se déshydrate, en se transformant en acide métaborique HBO2 de la forme α, la plus commune. La transformation est initiée et se poursuit très lentement à partir de 150 °C[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce solide blanc de masse molaire 43,82 g/mol, parfois légèrement coloré, cristallise dans un réseau cubique. Sa masse volumique vaut 2,486 g/cm3, son point de fusion 236 °C et son indice de réfraction 1,619. Il est légèrement soluble dans l'eau chaude, et encore moins dans l'eau froide.
+La forme α est obtenue par voie sèche : l'acide orthoborique solide sec se déshydrate, en se transformant en acide métaborique HBO2 de la forme α, la plus commune. La transformation est initiée et se poursuit très lentement à partir de 150 °C.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9taborique</t>
+          <t>Acide_métaborique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Préparation des trois formes polymorphiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Portée et maintenue à ébullition à 100 °C, une solution d'acide borique donne un dépôt d'acide métaborique :
 3 B(OH)3 aq à ébullition -→ H3B3O6 + 3 H2Ogaz
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9taborique</t>
+          <t>Acide_métaborique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Par chauffage au rouge (au-delà de 300 °C), l'acide métaborique se transforme en sesquioxyde de bore, en perdant l'équivalent d'une molécule d'eau.
 2 H3B3O6 solide chauffé au rouge -→ 3 B2O3 solide + 3 H2Ogaz</t>
